--- a/inst/data/Fake_data.xlsx
+++ b/inst/data/Fake_data.xlsx
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>42391</v>
       </c>
       <c r="L2" s="10">
-        <f>K2+7</f>
+        <f t="shared" ref="L2:L18" si="0">K2+7</f>
         <v>42398</v>
       </c>
       <c r="M2" s="10"/>
@@ -691,14 +691,14 @@
         <v>42370</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J29" si="0">I3+14</f>
+        <f t="shared" ref="J3:J29" si="1">I3+14</f>
         <v>42384</v>
       </c>
       <c r="K3" s="10">
         <v>42391</v>
       </c>
       <c r="L3" s="10">
-        <f>K3+7</f>
+        <f t="shared" si="0"/>
         <v>42398</v>
       </c>
       <c r="M3" s="10"/>
@@ -710,7 +710,7 @@
         <v>42404</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S30" si="1">R3+30</f>
+        <f t="shared" ref="S3:S30" si="2">R3+30</f>
         <v>42434</v>
       </c>
       <c r="T3" s="6" t="b">
@@ -746,14 +746,14 @@
         <v>42370</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42384</v>
       </c>
       <c r="K4" s="10">
         <v>42391</v>
       </c>
       <c r="L4" s="10">
-        <f>K4+7</f>
+        <f t="shared" si="0"/>
         <v>42398</v>
       </c>
       <c r="M4" s="10"/>
@@ -765,7 +765,7 @@
         <v>42404</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42434</v>
       </c>
       <c r="T4" s="6" t="b">
@@ -801,14 +801,14 @@
         <v>42370</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42384</v>
       </c>
       <c r="K5" s="10">
         <v>42391</v>
       </c>
       <c r="L5" s="10">
-        <f>K5+7</f>
+        <f t="shared" si="0"/>
         <v>42398</v>
       </c>
       <c r="M5" s="10"/>
@@ -820,7 +820,7 @@
         <v>42404</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42434</v>
       </c>
       <c r="T5" s="6" t="b">
@@ -863,7 +863,7 @@
         <v>42391</v>
       </c>
       <c r="L6" s="10">
-        <f>K6+7</f>
+        <f t="shared" si="0"/>
         <v>42398</v>
       </c>
       <c r="M6" s="10"/>
@@ -875,7 +875,7 @@
         <v>42404</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42434</v>
       </c>
       <c r="T6" s="6" t="b">
@@ -916,7 +916,7 @@
         <v>42391</v>
       </c>
       <c r="L7" s="10">
-        <f>K7+7</f>
+        <f t="shared" si="0"/>
         <v>42398</v>
       </c>
       <c r="M7" s="10"/>
@@ -928,7 +928,7 @@
         <v>42404</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42434</v>
       </c>
       <c r="T7" s="6" t="b">
@@ -964,34 +964,34 @@
         <v>42377</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42391</v>
       </c>
       <c r="K8" s="10">
         <v>42394</v>
       </c>
       <c r="L8" s="10">
-        <f>K8+7</f>
+        <f t="shared" si="0"/>
         <v>42401</v>
       </c>
       <c r="M8" s="10">
-        <f>L8+7</f>
+        <f t="shared" ref="M8:Q12" si="3">L8+7</f>
         <v>42408</v>
       </c>
       <c r="N8" s="10">
-        <f>M8+7</f>
+        <f t="shared" si="3"/>
         <v>42415</v>
       </c>
       <c r="O8" s="10">
-        <f>N8+7</f>
+        <f t="shared" si="3"/>
         <v>42422</v>
       </c>
       <c r="P8" s="10">
-        <f>O8+7</f>
+        <f t="shared" si="3"/>
         <v>42429</v>
       </c>
       <c r="Q8" s="10">
-        <f>P8+7</f>
+        <f t="shared" si="3"/>
         <v>42436</v>
       </c>
       <c r="R8" s="10">
@@ -999,7 +999,7 @@
         <v>42436</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42466</v>
       </c>
       <c r="T8" s="6" t="b">
@@ -1035,34 +1035,34 @@
         <v>42377</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42391</v>
       </c>
       <c r="K9" s="10">
         <v>42394</v>
       </c>
       <c r="L9" s="10">
-        <f>K9+7</f>
+        <f t="shared" si="0"/>
         <v>42401</v>
       </c>
       <c r="M9" s="10">
-        <f>L9+7</f>
+        <f t="shared" si="3"/>
         <v>42408</v>
       </c>
       <c r="N9" s="10">
-        <f>M9+7</f>
+        <f t="shared" si="3"/>
         <v>42415</v>
       </c>
       <c r="O9" s="10">
-        <f>N9+7</f>
+        <f t="shared" si="3"/>
         <v>42422</v>
       </c>
       <c r="P9" s="10">
-        <f>O9+7</f>
+        <f t="shared" si="3"/>
         <v>42429</v>
       </c>
       <c r="Q9" s="10">
-        <f>P9+7</f>
+        <f t="shared" si="3"/>
         <v>42436</v>
       </c>
       <c r="R9" s="10">
@@ -1070,7 +1070,7 @@
         <v>42436</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42466</v>
       </c>
       <c r="T9" s="6" t="b">
@@ -1106,34 +1106,34 @@
         <v>42377</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42391</v>
       </c>
       <c r="K10" s="10">
         <v>42394</v>
       </c>
       <c r="L10" s="10">
-        <f>K10+7</f>
+        <f t="shared" si="0"/>
         <v>42401</v>
       </c>
       <c r="M10" s="10">
-        <f>L10+7</f>
+        <f t="shared" si="3"/>
         <v>42408</v>
       </c>
       <c r="N10" s="10">
-        <f>M10+7</f>
+        <f t="shared" si="3"/>
         <v>42415</v>
       </c>
       <c r="O10" s="10">
-        <f>N10+7</f>
+        <f t="shared" si="3"/>
         <v>42422</v>
       </c>
       <c r="P10" s="10">
-        <f>O10+7</f>
+        <f t="shared" si="3"/>
         <v>42429</v>
       </c>
       <c r="Q10" s="10">
-        <f>P10+7</f>
+        <f t="shared" si="3"/>
         <v>42436</v>
       </c>
       <c r="R10" s="10">
@@ -1141,7 +1141,7 @@
         <v>42436</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42466</v>
       </c>
       <c r="T10" s="6" t="b">
@@ -1177,34 +1177,34 @@
         <v>42377</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42391</v>
       </c>
       <c r="K11" s="10">
         <v>42394</v>
       </c>
       <c r="L11" s="10">
-        <f>K11+7</f>
+        <f t="shared" si="0"/>
         <v>42401</v>
       </c>
       <c r="M11" s="10">
-        <f>L11+7</f>
+        <f t="shared" si="3"/>
         <v>42408</v>
       </c>
       <c r="N11" s="10">
-        <f>M11+7</f>
+        <f t="shared" si="3"/>
         <v>42415</v>
       </c>
       <c r="O11" s="10">
-        <f>N11+7</f>
+        <f t="shared" si="3"/>
         <v>42422</v>
       </c>
       <c r="P11" s="10">
-        <f>O11+7</f>
+        <f t="shared" si="3"/>
         <v>42429</v>
       </c>
       <c r="Q11" s="10">
-        <f>P11+7</f>
+        <f t="shared" si="3"/>
         <v>42436</v>
       </c>
       <c r="R11" s="10">
@@ -1212,7 +1212,7 @@
         <v>42436</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42466</v>
       </c>
       <c r="T11" s="6" t="b">
@@ -1248,34 +1248,34 @@
         <v>42377</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42391</v>
       </c>
       <c r="K12" s="10">
         <v>42394</v>
       </c>
       <c r="L12" s="10">
-        <f>K12+7</f>
+        <f t="shared" si="0"/>
         <v>42401</v>
       </c>
       <c r="M12" s="10">
-        <f>L12+7</f>
+        <f t="shared" si="3"/>
         <v>42408</v>
       </c>
       <c r="N12" s="10">
-        <f>M12+7</f>
+        <f t="shared" si="3"/>
         <v>42415</v>
       </c>
       <c r="O12" s="10">
-        <f>N12+7</f>
+        <f t="shared" si="3"/>
         <v>42422</v>
       </c>
       <c r="P12" s="10">
-        <f>O12+7</f>
+        <f t="shared" si="3"/>
         <v>42429</v>
       </c>
       <c r="Q12" s="10">
-        <f>P12+7</f>
+        <f t="shared" si="3"/>
         <v>42436</v>
       </c>
       <c r="R12" s="10">
@@ -1283,7 +1283,7 @@
         <v>42436</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42466</v>
       </c>
       <c r="T12" s="6" t="b">
@@ -1319,22 +1319,22 @@
         <v>42384</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K13" s="10">
         <v>42402</v>
       </c>
       <c r="L13" s="10">
-        <f>K13+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M13" s="10">
-        <f>L13+8</f>
+        <f t="shared" ref="M13:N18" si="4">L13+8</f>
         <v>42417</v>
       </c>
       <c r="N13" s="10">
-        <f>M13+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O13" s="5"/>
@@ -1344,7 +1344,7 @@
         <v>42430</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T13" s="6" t="b">
@@ -1380,22 +1380,22 @@
         <v>42384</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K14" s="10">
         <v>42402</v>
       </c>
       <c r="L14" s="10">
-        <f>K14+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M14" s="10">
-        <f>L14+8</f>
+        <f t="shared" si="4"/>
         <v>42417</v>
       </c>
       <c r="N14" s="10">
-        <f>M14+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O14" s="5"/>
@@ -1405,7 +1405,7 @@
         <v>42430</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T14" s="6" t="b">
@@ -1441,22 +1441,22 @@
         <v>42384</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K15" s="10">
         <v>42402</v>
       </c>
       <c r="L15" s="10">
-        <f>K15+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M15" s="10">
-        <f>L15+8</f>
+        <f t="shared" si="4"/>
         <v>42417</v>
       </c>
       <c r="N15" s="10">
-        <f>M15+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O15" s="5"/>
@@ -1466,7 +1466,7 @@
         <v>42430</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T15" s="6" t="b">
@@ -1500,22 +1500,22 @@
         <v>42384</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K16" s="10">
         <v>42402</v>
       </c>
       <c r="L16" s="10">
-        <f>K16+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M16" s="10">
-        <f>L16+8</f>
+        <f t="shared" si="4"/>
         <v>42417</v>
       </c>
       <c r="N16" s="10">
-        <f>M16+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O16" s="5"/>
@@ -1525,7 +1525,7 @@
         <v>42430</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T16" s="6" t="b">
@@ -1561,22 +1561,22 @@
         <v>42384</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K17" s="10">
         <v>42402</v>
       </c>
       <c r="L17" s="10">
-        <f>K17+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M17" s="10">
-        <f>L17+8</f>
+        <f t="shared" si="4"/>
         <v>42417</v>
       </c>
       <c r="N17" s="10">
-        <f>M17+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O17" s="5"/>
@@ -1586,7 +1586,7 @@
         <v>42430</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T17" s="6" t="b">
@@ -1622,22 +1622,22 @@
         <v>42384</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K18" s="10">
         <v>42402</v>
       </c>
       <c r="L18" s="10">
-        <f>K18+7</f>
+        <f t="shared" si="0"/>
         <v>42409</v>
       </c>
       <c r="M18" s="10">
-        <f>L18+8</f>
+        <f t="shared" si="4"/>
         <v>42417</v>
       </c>
       <c r="N18" s="10">
-        <f>M18+8</f>
+        <f t="shared" si="4"/>
         <v>42425</v>
       </c>
       <c r="O18" s="5"/>
@@ -1647,7 +1647,7 @@
         <v>42430</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T18" s="6" t="b">
@@ -1683,18 +1683,18 @@
         <v>42384</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K19" s="10">
         <v>42403</v>
       </c>
       <c r="L19" s="10">
-        <f>K19+8</f>
+        <f t="shared" ref="L19:M23" si="5">K19+8</f>
         <v>42411</v>
       </c>
       <c r="M19" s="10">
-        <f>L19+8</f>
+        <f t="shared" si="5"/>
         <v>42419</v>
       </c>
       <c r="N19" s="10">
@@ -1708,7 +1708,7 @@
         <v>42430</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T19" s="6" t="b">
@@ -1744,18 +1744,18 @@
         <v>42384</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K20" s="10">
         <v>42403</v>
       </c>
       <c r="L20" s="10">
-        <f>K20+8</f>
+        <f t="shared" si="5"/>
         <v>42411</v>
       </c>
       <c r="M20" s="10">
-        <f>L20+8</f>
+        <f t="shared" si="5"/>
         <v>42419</v>
       </c>
       <c r="N20" s="10">
@@ -1769,7 +1769,7 @@
         <v>42430</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T20" s="6" t="b">
@@ -1805,18 +1805,18 @@
         <v>42384</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K21" s="10">
         <v>42403</v>
       </c>
       <c r="L21" s="10">
-        <f>K21+8</f>
+        <f t="shared" si="5"/>
         <v>42411</v>
       </c>
       <c r="M21" s="10">
-        <f>L21+8</f>
+        <f t="shared" si="5"/>
         <v>42419</v>
       </c>
       <c r="N21" s="10">
@@ -1830,7 +1830,7 @@
         <v>42430</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T21" s="6" t="b">
@@ -1866,18 +1866,18 @@
         <v>42384</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K22" s="10">
         <v>42403</v>
       </c>
       <c r="L22" s="10">
-        <f>K22+8</f>
+        <f t="shared" si="5"/>
         <v>42411</v>
       </c>
       <c r="M22" s="10">
-        <f>L22+8</f>
+        <f t="shared" si="5"/>
         <v>42419</v>
       </c>
       <c r="N22" s="10">
@@ -1891,7 +1891,7 @@
         <v>42430</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T22" s="6" t="b">
@@ -1927,18 +1927,18 @@
         <v>42384</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42398</v>
       </c>
       <c r="K23" s="10">
         <v>42403</v>
       </c>
       <c r="L23" s="10">
-        <f>K23+8</f>
+        <f t="shared" si="5"/>
         <v>42411</v>
       </c>
       <c r="M23" s="10">
-        <f>L23+8</f>
+        <f t="shared" si="5"/>
         <v>42419</v>
       </c>
       <c r="N23" s="10">
@@ -1952,7 +1952,7 @@
         <v>42430</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42460</v>
       </c>
       <c r="T23" s="6" t="b">
@@ -1988,7 +1988,7 @@
         <v>42391</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42405</v>
       </c>
       <c r="K24" s="10">
@@ -2004,7 +2004,7 @@
         <v>42410</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42440</v>
       </c>
       <c r="T24" s="6" t="b">
@@ -2040,7 +2040,7 @@
         <v>42391</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42405</v>
       </c>
       <c r="K25" s="10">
@@ -2056,7 +2056,7 @@
         <v>42410</v>
       </c>
       <c r="S25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42440</v>
       </c>
       <c r="T25" s="6" t="b">
@@ -2092,7 +2092,7 @@
         <v>42391</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42405</v>
       </c>
       <c r="K26" s="10">
@@ -2108,7 +2108,7 @@
         <v>42410</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42440</v>
       </c>
       <c r="T26" s="6" t="b">
@@ -2142,7 +2142,7 @@
         <v>42391</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42405</v>
       </c>
       <c r="K27" s="10">
@@ -2158,7 +2158,7 @@
         <v>42410</v>
       </c>
       <c r="S27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42440</v>
       </c>
       <c r="T27" s="6" t="b">
@@ -2181,7 +2181,7 @@
         <v>42393</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42407</v>
       </c>
       <c r="K28" s="10">
@@ -2192,23 +2192,23 @@
         <v>42416</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" ref="M28:Q28" si="2">L28+7</f>
+        <f t="shared" ref="M28:Q28" si="6">L28+7</f>
         <v>42423</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42430</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42437</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42444</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42451</v>
       </c>
       <c r="R28" s="10">
@@ -2216,11 +2216,11 @@
         <v>42451</v>
       </c>
       <c r="S28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42481</v>
       </c>
       <c r="T28" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2252,7 +2252,7 @@
         <v>42399</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42413</v>
       </c>
       <c r="K29" s="10">
@@ -2268,7 +2268,7 @@
         <v>42421</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42451</v>
       </c>
       <c r="T29" s="6" t="b">
@@ -2320,7 +2320,7 @@
         <v>42421</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42451</v>
       </c>
       <c r="T30" s="6" t="b">
